--- a/biology/Botanique/Vochysia/Vochysia.xlsx
+++ b/biology/Botanique/Vochysia/Vochysia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vochysia est un genre d'arbre néotropical appartenant à la famille des Vochysiaceae, dont l'espèce type est Vochysia guianensis Aubl.. Ce genre comprend aujourd'hui 117 espèces valides.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « VOCHY . (Tabula 6.)
 CAL. Perianthium monophyllum, quadripartitum ; laciniis ſubrotundis, ad oras viiloſis ; duabus majoribus. 
 COR. tetrapetala : petalis inæqualibus, calici inſertis ; ſuperius porte elongatum in tubum obtuſum, clauſum, incurvum : pars ſuperior expanditur in lobum erectum, oblongum, emarginatum, limbo utrinque incurvo ; petala duo latéralia minora ungue lato inſerta, mutuo conniventia ; inferius amplum, intra lateralia poſitum ipſiſque incumbens. 
@@ -548,10 +562,48 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List (17/11/2021)[3] :
-Espèces valides
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List (17/11/2021) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vochysia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vochysia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Vochysia acuminata Bong.
 Vochysia allenii Standl. &amp; L.O.Williams
 Vochysia angustifolia Ducke
@@ -669,7 +721,43 @@
 Vochysia venezuelana Stafleu
 Vochysia venulosa Warm.
 Vochysia vismiifolia Spruce ex Warm.
-Noms non résolus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vochysia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vochysia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms non résolus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Vochysia alpestris Mart.
 Vochysia alternifolia Briq. &amp; Glaz.
 Vochysia angelica M.C.Vianna &amp; Fontella
